--- a/Network-Architecture.xlsx
+++ b/Network-Architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grok/Nutstore Files/coding/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CEEC23-5868-8C4B-B9BD-80AFD2166D43}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1217B3-9E9C-144A-97C1-088392C87F0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{5986AF1E-874D-2443-B2A8-91270C641F35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
   <si>
     <t>Block</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>output</t>
+  </si>
+  <si>
+    <t>pooling</t>
+  </si>
+  <si>
+    <t>GlobalAvdPool2D</t>
   </si>
 </sst>
 </file>
@@ -781,7 +787,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -891,6 +897,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -926,6 +935,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1897,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376D8B33-D451-2041-9AE8-F7209323A56A}">
-  <dimension ref="H1:L54"/>
+  <dimension ref="H1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="E36" zoomScale="142" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1940,7 +1952,7 @@
       <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="41"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="16" t="s">
         <v>69</v>
       </c>
@@ -1957,16 +1969,16 @@
     </row>
     <row r="5" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="22"/>
-      <c r="I5" s="45"/>
+      <c r="I5" s="46"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="42" t="s">
+      <c r="K5" s="43" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H6" s="22"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="41"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="16" t="s">
         <v>67</v>
       </c>
@@ -1989,7 +2001,7 @@
       <c r="H8" s="22"/>
       <c r="I8" s="33"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="42" t="s">
+      <c r="K8" s="43" t="s">
         <v>47</v>
       </c>
       <c r="L8" s="14"/>
@@ -2007,19 +2019,19 @@
     </row>
     <row r="10" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H10" s="22"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="42" t="s">
+      <c r="I10" s="47"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="43" t="s">
         <v>47</v>
       </c>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H11" s="22"/>
-      <c r="I11" s="47" t="s">
+      <c r="I11" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="40"/>
+      <c r="J11" s="41"/>
       <c r="K11" s="16" t="s">
         <v>68</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="26"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L13" s="11"/>
@@ -2058,7 +2070,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="26"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L15" s="11"/>
@@ -2078,7 +2090,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="26"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L17" s="11"/>
@@ -2098,7 +2110,7 @@
       <c r="H19" s="22"/>
       <c r="I19" s="26"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="42" t="s">
+      <c r="K19" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="11"/>
@@ -2118,7 +2130,7 @@
       <c r="H21" s="22"/>
       <c r="I21" s="26"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="42" t="s">
+      <c r="K21" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L21" s="11"/>
@@ -2138,7 +2150,7 @@
       <c r="H23" s="22"/>
       <c r="I23" s="26"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L23" s="11"/>
@@ -2158,7 +2170,7 @@
       <c r="H25" s="22"/>
       <c r="I25" s="26"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="42" t="s">
+      <c r="K25" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L25" s="11"/>
@@ -2176,20 +2188,20 @@
     </row>
     <row r="27" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H27" s="22"/>
-      <c r="I27" s="48"/>
+      <c r="I27" s="49"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="42" t="s">
+      <c r="K27" s="43" t="s">
         <v>49</v>
       </c>
       <c r="L27" s="11"/>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H28" s="22"/>
-      <c r="I28" s="47" t="s">
+      <c r="I28" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="39"/>
-      <c r="K28" s="41" t="s">
+      <c r="J28" s="40"/>
+      <c r="K28" s="42" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2207,7 +2219,7 @@
       <c r="H30" s="22"/>
       <c r="I30" s="26"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="42" t="s">
+      <c r="K30" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2225,7 +2237,7 @@
       <c r="H32" s="22"/>
       <c r="I32" s="26"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2243,7 +2255,7 @@
       <c r="H34" s="22"/>
       <c r="I34" s="26"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="42" t="s">
+      <c r="K34" s="43" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2261,7 +2273,7 @@
       <c r="H36" s="22"/>
       <c r="I36" s="26"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="42" t="s">
+      <c r="K36" s="43" t="s">
         <v>72</v>
       </c>
       <c r="L36" s="11"/>
@@ -2281,7 +2293,7 @@
       <c r="H38" s="22"/>
       <c r="I38" s="26"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="42" t="s">
+      <c r="K38" s="43" t="s">
         <v>72</v>
       </c>
       <c r="L38" s="11"/>
@@ -2301,7 +2313,7 @@
       <c r="H40" s="22"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="42" t="s">
+      <c r="K40" s="43" t="s">
         <v>72</v>
       </c>
       <c r="L40" s="11"/>
@@ -2321,7 +2333,7 @@
       <c r="H42" s="22"/>
       <c r="I42" s="26"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="42" t="s">
+      <c r="K42" s="43" t="s">
         <v>72</v>
       </c>
       <c r="L42" s="11"/>
@@ -2339,26 +2351,26 @@
     </row>
     <row r="44" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H44" s="22"/>
-      <c r="I44" s="48"/>
+      <c r="I44" s="49"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="42" t="s">
+      <c r="K44" s="43" t="s">
         <v>72</v>
       </c>
       <c r="L44" s="11"/>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H45" s="22"/>
-      <c r="I45" s="50" t="s">
+      <c r="I45" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="39"/>
-      <c r="K45" s="41" t="s">
+      <c r="J45" s="40"/>
+      <c r="K45" s="42" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="46" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H46" s="22"/>
-      <c r="I46" s="44"/>
+      <c r="I46" s="45"/>
       <c r="J46" s="28" t="s">
         <v>63</v>
       </c>
@@ -2368,15 +2380,15 @@
     </row>
     <row r="47" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H47" s="22"/>
-      <c r="I47" s="44"/>
+      <c r="I47" s="45"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="42" t="s">
+      <c r="K47" s="43" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H48" s="22"/>
-      <c r="I48" s="44"/>
+      <c r="I48" s="45"/>
       <c r="J48" s="24" t="s">
         <v>64</v>
       </c>
@@ -2386,15 +2398,15 @@
     </row>
     <row r="49" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H49" s="22"/>
-      <c r="I49" s="44"/>
+      <c r="I49" s="45"/>
       <c r="J49" s="24"/>
-      <c r="K49" s="42" t="s">
+      <c r="K49" s="43" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H50" s="22"/>
-      <c r="I50" s="44"/>
+      <c r="I50" s="45"/>
       <c r="J50" s="28" t="s">
         <v>65</v>
       </c>
@@ -2405,16 +2417,16 @@
     </row>
     <row r="51" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H51" s="22"/>
-      <c r="I51" s="44"/>
+      <c r="I51" s="45"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="42" t="s">
+      <c r="K51" s="43" t="s">
         <v>74</v>
       </c>
       <c r="L51" s="11"/>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.2">
       <c r="H52" s="22"/>
-      <c r="I52" s="44"/>
+      <c r="I52" s="45"/>
       <c r="J52" s="24" t="s">
         <v>66</v>
       </c>
@@ -2425,28 +2437,39 @@
     </row>
     <row r="53" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H53" s="22"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="42" t="s">
+      <c r="I53" s="52"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="43" t="s">
         <v>74</v>
       </c>
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="8:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="23"/>
-      <c r="I54" s="49" t="s">
+      <c r="H54" s="22"/>
+      <c r="I54" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="53"/>
+      <c r="K54" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L54" s="39"/>
+    </row>
+    <row r="55" spans="8:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="23"/>
+      <c r="I55" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="J54" s="20"/>
-      <c r="K54" s="21" t="s">
+      <c r="J55" s="20"/>
+      <c r="K55" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="20"/>
+      <c r="L55" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="29">
     <mergeCell ref="J52:J53"/>
-    <mergeCell ref="H2:H54"/>
+    <mergeCell ref="H2:H55"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="I3:I5"/>
     <mergeCell ref="J33:J34"/>

--- a/Network-Architecture.xlsx
+++ b/Network-Architecture.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grok/Nutstore Files/coding/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1217B3-9E9C-144A-97C1-088392C87F0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AC270-888C-EE4E-9001-2D2F48E4E472}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{5986AF1E-874D-2443-B2A8-91270C641F35}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
   <si>
     <t>Block</t>
   </si>
@@ -517,12 +517,114 @@
   <si>
     <t>GlobalAvdPool2D</t>
   </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>features[0]</t>
+  </si>
+  <si>
+    <t>features[1]</t>
+  </si>
+  <si>
+    <t>features[2]</t>
+  </si>
+  <si>
+    <t>features[3]</t>
+  </si>
+  <si>
+    <t>features[4]</t>
+  </si>
+  <si>
+    <t>features[5]</t>
+  </si>
+  <si>
+    <t>features[6]</t>
+  </si>
+  <si>
+    <t>features[7]</t>
+  </si>
+  <si>
+    <t>features[8]</t>
+  </si>
+  <si>
+    <t>features[9]</t>
+  </si>
+  <si>
+    <t>features[10]</t>
+  </si>
+  <si>
+    <t>features[11]</t>
+  </si>
+  <si>
+    <t>features[12]</t>
+  </si>
+  <si>
+    <t>features[13]</t>
+  </si>
+  <si>
+    <t>features[14]</t>
+  </si>
+  <si>
+    <t>features[15]</t>
+  </si>
+  <si>
+    <t>features[16]</t>
+  </si>
+  <si>
+    <t>features[17]</t>
+  </si>
+  <si>
+    <t>features[18]</t>
+  </si>
+  <si>
+    <t>features[19]</t>
+  </si>
+  <si>
+    <t>features[20]</t>
+  </si>
+  <si>
+    <t>features[21]</t>
+  </si>
+  <si>
+    <t>features[22]</t>
+  </si>
+  <si>
+    <t>features[23]</t>
+  </si>
+  <si>
+    <t>features[24]</t>
+  </si>
+  <si>
+    <t>features[25]</t>
+  </si>
+  <si>
+    <t>features[26]</t>
+  </si>
+  <si>
+    <t>features[27]</t>
+  </si>
+  <si>
+    <t>features[28]</t>
+  </si>
+  <si>
+    <t>Stages</t>
+  </si>
+  <si>
+    <t>Stage_1</t>
+  </si>
+  <si>
+    <t>Stage_2</t>
+  </si>
+  <si>
+    <t>Stage_3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -581,8 +683,13 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Monaco"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -679,8 +786,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BC2E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8AD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5FC79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -783,11 +920,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,6 +1043,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,6 +1087,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -946,6 +1137,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7E79"/>
+      <color rgb="FFD5FC79"/>
+      <color rgb="FFFF85FF"/>
+      <color rgb="FFFF8AD8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1909,10 +2108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376D8B33-D451-2041-9AE8-F7209323A56A}">
-  <dimension ref="H1:L55"/>
+  <dimension ref="H1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E36" zoomScale="142" workbookViewId="0">
-      <selection activeCell="J61" sqref="J61"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1920,10 +2119,11 @@
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="10" max="10" width="22.5" customWidth="1"/>
     <col min="11" max="11" width="65" customWidth="1"/>
-    <col min="12" max="12" width="47.33203125" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="8:12" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="8:13" ht="19" x14ac:dyDescent="0.25">
       <c r="H1" s="12" t="s">
         <v>2</v>
       </c>
@@ -1936,8 +2136,14 @@
       <c r="K1" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L1" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H2" s="22" t="s">
         <v>36</v>
       </c>
@@ -1946,18 +2152,28 @@
       <c r="K2" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L2" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="M2" s="61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H3" s="22"/>
       <c r="I3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="42"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L3" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="61"/>
+    </row>
+    <row r="4" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H4" s="22"/>
       <c r="I4" s="36"/>
       <c r="J4" s="28" t="s">
@@ -1966,25 +2182,34 @@
       <c r="K4" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="61"/>
+    </row>
+    <row r="5" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H5" s="22"/>
-      <c r="I5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L5" s="39"/>
+      <c r="M5" s="61"/>
+    </row>
+    <row r="6" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H6" s="22"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="42"/>
+      <c r="J6" s="43"/>
       <c r="K6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" s="61"/>
+    </row>
+    <row r="7" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H7" s="22"/>
       <c r="I7" s="33" t="s">
         <v>9</v>
@@ -1995,18 +2220,22 @@
       <c r="K7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="61"/>
+    </row>
+    <row r="8" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H8" s="22"/>
       <c r="I8" s="33"/>
       <c r="J8" s="28"/>
-      <c r="K8" s="43" t="s">
+      <c r="K8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="28"/>
+      <c r="M8" s="61"/>
+    </row>
+    <row r="9" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H9" s="22"/>
       <c r="I9" s="33"/>
       <c r="J9" s="24" t="s">
@@ -2015,28 +2244,36 @@
       <c r="K9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="M9" s="61"/>
+    </row>
+    <row r="10" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H10" s="22"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="43" t="s">
+      <c r="I10" s="48"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="45"/>
+      <c r="M10" s="61"/>
+    </row>
+    <row r="11" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H11" s="22"/>
-      <c r="I11" s="48" t="s">
+      <c r="I11" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="41"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="16" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="12" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="61"/>
+    </row>
+    <row r="12" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H12" s="22"/>
       <c r="I12" s="26"/>
       <c r="J12" s="28" t="s">
@@ -2045,17 +2282,22 @@
       <c r="K12" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="M12" s="61"/>
+    </row>
+    <row r="13" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H13" s="22"/>
       <c r="I13" s="26"/>
       <c r="J13" s="28"/>
-      <c r="K13" s="43" t="s">
+      <c r="K13" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="11"/>
-    </row>
-    <row r="14" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="28"/>
+      <c r="M13" s="61"/>
+    </row>
+    <row r="14" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H14" s="22"/>
       <c r="I14" s="26"/>
       <c r="J14" s="24" t="s">
@@ -2064,18 +2306,22 @@
       <c r="K14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="61"/>
+    </row>
+    <row r="15" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H15" s="22"/>
       <c r="I15" s="26"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="11"/>
-    </row>
-    <row r="16" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="24"/>
+      <c r="M15" s="61"/>
+    </row>
+    <row r="16" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H16" s="22"/>
       <c r="I16" s="26"/>
       <c r="J16" s="28" t="s">
@@ -2084,18 +2330,22 @@
       <c r="K16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="M16" s="61"/>
+    </row>
+    <row r="17" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H17" s="22"/>
       <c r="I17" s="26"/>
       <c r="J17" s="28"/>
-      <c r="K17" s="43" t="s">
+      <c r="K17" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="11"/>
-    </row>
-    <row r="18" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="58"/>
+      <c r="M17" s="61"/>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H18" s="22"/>
       <c r="I18" s="26"/>
       <c r="J18" s="24" t="s">
@@ -2104,18 +2354,22 @@
       <c r="K18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="11"/>
-    </row>
-    <row r="19" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="M18" s="61"/>
+    </row>
+    <row r="19" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H19" s="22"/>
       <c r="I19" s="26"/>
       <c r="J19" s="24"/>
-      <c r="K19" s="43" t="s">
+      <c r="K19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="11"/>
-    </row>
-    <row r="20" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L19" s="59"/>
+      <c r="M19" s="61"/>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H20" s="22"/>
       <c r="I20" s="26"/>
       <c r="J20" s="28" t="s">
@@ -2124,18 +2378,22 @@
       <c r="K20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="M20" s="61"/>
+    </row>
+    <row r="21" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H21" s="22"/>
       <c r="I21" s="26"/>
       <c r="J21" s="28"/>
-      <c r="K21" s="43" t="s">
+      <c r="K21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="55"/>
+      <c r="M21" s="61"/>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H22" s="22"/>
       <c r="I22" s="26"/>
       <c r="J22" s="24" t="s">
@@ -2144,18 +2402,22 @@
       <c r="K22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="11"/>
-    </row>
-    <row r="23" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L22" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="M22" s="61"/>
+    </row>
+    <row r="23" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H23" s="22"/>
       <c r="I23" s="26"/>
       <c r="J23" s="24"/>
-      <c r="K23" s="43" t="s">
+      <c r="K23" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="11"/>
-    </row>
-    <row r="24" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="59"/>
+      <c r="M23" s="61"/>
+    </row>
+    <row r="24" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H24" s="22"/>
       <c r="I24" s="26"/>
       <c r="J24" s="28" t="s">
@@ -2164,18 +2426,22 @@
       <c r="K24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="11"/>
-    </row>
-    <row r="25" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L24" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="M24" s="61"/>
+    </row>
+    <row r="25" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H25" s="22"/>
       <c r="I25" s="26"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="43" t="s">
+      <c r="K25" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="11"/>
-    </row>
-    <row r="26" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="55"/>
+      <c r="M25" s="61"/>
+    </row>
+    <row r="26" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H26" s="22"/>
       <c r="I26" s="26"/>
       <c r="J26" s="24" t="s">
@@ -2184,28 +2450,38 @@
       <c r="K26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="11"/>
-    </row>
-    <row r="27" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L26" s="56" t="s">
+        <v>94</v>
+      </c>
+      <c r="M26" s="61"/>
+    </row>
+    <row r="27" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H27" s="22"/>
-      <c r="I27" s="49"/>
+      <c r="I27" s="50"/>
       <c r="J27" s="24"/>
-      <c r="K27" s="43" t="s">
+      <c r="K27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="11"/>
-    </row>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="57"/>
+      <c r="M27" s="62"/>
+    </row>
+    <row r="28" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H28" s="22"/>
-      <c r="I28" s="48" t="s">
+      <c r="I28" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="40"/>
-      <c r="K28" s="42" t="s">
+      <c r="J28" s="41"/>
+      <c r="K28" s="43" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H29" s="22"/>
       <c r="I29" s="26"/>
       <c r="J29" s="28" t="s">
@@ -2214,16 +2490,22 @@
       <c r="K29" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="30" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L29" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="M29" s="67"/>
+    </row>
+    <row r="30" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H30" s="22"/>
       <c r="I30" s="26"/>
       <c r="J30" s="28"/>
-      <c r="K30" s="43" t="s">
+      <c r="K30" s="44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="55"/>
+      <c r="M30" s="67"/>
+    </row>
+    <row r="31" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H31" s="22"/>
       <c r="I31" s="26"/>
       <c r="J31" s="24" t="s">
@@ -2232,16 +2514,22 @@
       <c r="K31" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L31" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="M31" s="67"/>
+    </row>
+    <row r="32" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H32" s="22"/>
       <c r="I32" s="26"/>
       <c r="J32" s="24"/>
-      <c r="K32" s="43" t="s">
+      <c r="K32" s="44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="59"/>
+      <c r="M32" s="67"/>
+    </row>
+    <row r="33" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H33" s="22"/>
       <c r="I33" s="26"/>
       <c r="J33" s="28" t="s">
@@ -2250,16 +2538,22 @@
       <c r="K33" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L33" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="M33" s="67"/>
+    </row>
+    <row r="34" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H34" s="22"/>
       <c r="I34" s="26"/>
       <c r="J34" s="28"/>
-      <c r="K34" s="43" t="s">
+      <c r="K34" s="44" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="55"/>
+      <c r="M34" s="67"/>
+    </row>
+    <row r="35" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H35" s="22"/>
       <c r="I35" s="26"/>
       <c r="J35" s="24" t="s">
@@ -2268,17 +2562,22 @@
       <c r="K35" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L35" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="M35" s="67"/>
+    </row>
+    <row r="36" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H36" s="22"/>
       <c r="I36" s="26"/>
       <c r="J36" s="24"/>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="11"/>
-    </row>
-    <row r="37" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L36" s="59"/>
+      <c r="M36" s="67"/>
+    </row>
+    <row r="37" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H37" s="22"/>
       <c r="I37" s="26"/>
       <c r="J37" s="28" t="s">
@@ -2287,18 +2586,22 @@
       <c r="K37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="11"/>
-    </row>
-    <row r="38" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L37" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="M37" s="67"/>
+    </row>
+    <row r="38" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H38" s="22"/>
       <c r="I38" s="26"/>
       <c r="J38" s="28"/>
-      <c r="K38" s="43" t="s">
+      <c r="K38" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="L38" s="11"/>
-    </row>
-    <row r="39" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="55"/>
+      <c r="M38" s="67"/>
+    </row>
+    <row r="39" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H39" s="22"/>
       <c r="I39" s="26"/>
       <c r="J39" s="24" t="s">
@@ -2307,18 +2610,22 @@
       <c r="K39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="11"/>
-    </row>
-    <row r="40" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L39" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="M39" s="67"/>
+    </row>
+    <row r="40" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H40" s="22"/>
       <c r="I40" s="26"/>
       <c r="J40" s="24"/>
-      <c r="K40" s="43" t="s">
+      <c r="K40" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="11"/>
-    </row>
-    <row r="41" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L40" s="59"/>
+      <c r="M40" s="67"/>
+    </row>
+    <row r="41" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H41" s="22"/>
       <c r="I41" s="26"/>
       <c r="J41" s="28" t="s">
@@ -2327,18 +2634,22 @@
       <c r="K41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L41" s="11"/>
-    </row>
-    <row r="42" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L41" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="M41" s="67"/>
+    </row>
+    <row r="42" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H42" s="22"/>
       <c r="I42" s="26"/>
       <c r="J42" s="28"/>
-      <c r="K42" s="43" t="s">
+      <c r="K42" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="11"/>
-    </row>
-    <row r="43" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="55"/>
+      <c r="M42" s="67"/>
+    </row>
+    <row r="43" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H43" s="22"/>
       <c r="I43" s="26"/>
       <c r="J43" s="24" t="s">
@@ -2347,117 +2658,147 @@
       <c r="K43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="11"/>
-    </row>
-    <row r="44" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L43" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="M43" s="67"/>
+    </row>
+    <row r="44" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H44" s="22"/>
-      <c r="I44" s="49"/>
+      <c r="I44" s="50"/>
       <c r="J44" s="24"/>
-      <c r="K44" s="43" t="s">
+      <c r="K44" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="L44" s="11"/>
-    </row>
-    <row r="45" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="60"/>
+      <c r="M44" s="68"/>
+    </row>
+    <row r="45" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H45" s="22"/>
-      <c r="I45" s="51" t="s">
+      <c r="I45" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="40"/>
-      <c r="K45" s="42" t="s">
+      <c r="J45" s="41"/>
+      <c r="K45" s="43" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="46" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="M45" s="63" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H46" s="22"/>
-      <c r="I46" s="45"/>
+      <c r="I46" s="46"/>
       <c r="J46" s="28" t="s">
         <v>63</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="47" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L46" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="M46" s="64"/>
+    </row>
+    <row r="47" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H47" s="22"/>
-      <c r="I47" s="45"/>
+      <c r="I47" s="46"/>
       <c r="J47" s="28"/>
-      <c r="K47" s="43" t="s">
+      <c r="K47" s="44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="55"/>
+      <c r="M47" s="64"/>
+    </row>
+    <row r="48" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H48" s="22"/>
-      <c r="I48" s="45"/>
+      <c r="I48" s="46"/>
       <c r="J48" s="24" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="49" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L48" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="M48" s="64"/>
+    </row>
+    <row r="49" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H49" s="22"/>
-      <c r="I49" s="45"/>
+      <c r="I49" s="46"/>
       <c r="J49" s="24"/>
-      <c r="K49" s="43" t="s">
+      <c r="K49" s="44" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="50" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="59"/>
+      <c r="M49" s="64"/>
+    </row>
+    <row r="50" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H50" s="22"/>
-      <c r="I50" s="45"/>
+      <c r="I50" s="46"/>
       <c r="J50" s="28" t="s">
         <v>65</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L50" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="M50" s="64"/>
+    </row>
+    <row r="51" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H51" s="22"/>
-      <c r="I51" s="45"/>
+      <c r="I51" s="46"/>
       <c r="J51" s="28"/>
-      <c r="K51" s="43" t="s">
+      <c r="K51" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="8:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="55"/>
+      <c r="M51" s="64"/>
+    </row>
+    <row r="52" spans="8:13" x14ac:dyDescent="0.2">
       <c r="H52" s="22"/>
-      <c r="I52" s="45"/>
+      <c r="I52" s="46"/>
       <c r="J52" s="24" t="s">
         <v>66</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="L52" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="M52" s="64"/>
+    </row>
+    <row r="53" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H53" s="22"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="43" t="s">
+      <c r="I53" s="53"/>
+      <c r="J53" s="45"/>
+      <c r="K53" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="8:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="60"/>
+      <c r="M53" s="65"/>
+    </row>
+    <row r="54" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H54" s="22"/>
-      <c r="I54" s="50" t="s">
+      <c r="I54" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="53"/>
+      <c r="J54" s="54"/>
       <c r="K54" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="L54" s="39"/>
-    </row>
-    <row r="55" spans="8:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="40"/>
+    </row>
+    <row r="55" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H55" s="23"/>
-      <c r="I55" s="50" t="s">
+      <c r="I55" s="51" t="s">
         <v>76</v>
       </c>
       <c r="J55" s="20"/>
@@ -2467,7 +2808,33 @@
       <c r="L55" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="55">
+    <mergeCell ref="M2:M27"/>
+    <mergeCell ref="M28:M44"/>
+    <mergeCell ref="M45:M53"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="L39:L40"/>
+    <mergeCell ref="L41:L42"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="J52:J53"/>
     <mergeCell ref="H2:H55"/>
     <mergeCell ref="J4:J5"/>

--- a/Network-Architecture.xlsx
+++ b/Network-Architecture.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grok/Nutstore Files/coding/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA2AC270-888C-EE4E-9001-2D2F48E4E472}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82306C6E-D9FC-5345-81F1-206F7EF19341}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{5986AF1E-874D-2443-B2A8-91270C641F35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{5986AF1E-874D-2443-B2A8-91270C641F35}"/>
   </bookViews>
   <sheets>
     <sheet name="resnet50_v1s" sheetId="1" r:id="rId1"/>
     <sheet name="darknet53" sheetId="2" r:id="rId2"/>
     <sheet name="DarknetBasicBlockV3" sheetId="3" r:id="rId3"/>
+    <sheet name="YOLODetectionBlockV3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="123">
   <si>
     <t>Block</t>
   </si>
@@ -509,6 +510,9 @@
     <t>Conv2D(c= 512,k=1,p=0,s=1) + BN + LeakyReLU(0.1)</t>
   </si>
   <si>
+    <t>Output</t>
+  </si>
+  <si>
     <t>output</t>
   </si>
   <si>
@@ -618,6 +622,33 @@
   </si>
   <si>
     <t>Stage_3</t>
+  </si>
+  <si>
+    <t>body / tip</t>
+  </si>
+  <si>
+    <t>cell_3</t>
+  </si>
+  <si>
+    <t>cell_4</t>
+  </si>
+  <si>
+    <t>cell_5</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>tip</t>
+  </si>
+  <si>
+    <t>cell_6</t>
+  </si>
+  <si>
+    <t>route</t>
+  </si>
+  <si>
+    <t>Conv2D(c=1*channel,k=1,p=0,s=1) + BN + LeakyReLU(0.1)</t>
   </si>
 </sst>
 </file>
@@ -689,7 +720,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +837,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF85FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD5FC79"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -813,6 +850,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF7E79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,7 +976,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -972,6 +1015,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1113,6 +1159,15 @@
     <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1122,13 +1177,28 @@
     <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1139,9 +1209,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF85FF"/>
+      <color rgb="FFD5FC79"/>
       <color rgb="FFFF7E79"/>
-      <color rgb="FFD5FC79"/>
-      <color rgb="FFFF85FF"/>
       <color rgb="FFFF8AD8"/>
     </mruColors>
   </colors>
@@ -1485,120 +1555,120 @@
       </c>
     </row>
     <row r="2" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="15" t="s">
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="14"/>
+      <c r="L2" s="15"/>
     </row>
     <row r="3" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="22"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="16" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="14"/>
+      <c r="L3" s="15"/>
     </row>
     <row r="4" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H4" s="22"/>
-      <c r="I4" s="36" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="35" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="14"/>
+      <c r="L4" s="15"/>
     </row>
     <row r="5" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H5" s="22"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="35"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="36"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="14"/>
+      <c r="L5" s="15"/>
     </row>
     <row r="6" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="22"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="36"/>
       <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L6" s="14"/>
+      <c r="L6" s="15"/>
     </row>
     <row r="7" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="22"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="25" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="26" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L7" s="14"/>
+      <c r="L7" s="15"/>
     </row>
     <row r="8" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="22"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="25"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="14"/>
+      <c r="L8" s="15"/>
     </row>
     <row r="9" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="22"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="25"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="14"/>
+      <c r="L9" s="15"/>
     </row>
     <row r="10" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H10" s="22"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="31" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="32" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="14"/>
+      <c r="L10" s="15"/>
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="22"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="31"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="32"/>
       <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L11" s="14"/>
+      <c r="L11" s="15"/>
     </row>
     <row r="12" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="22"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="32"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="14"/>
+      <c r="L12" s="15"/>
     </row>
     <row r="13" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="22"/>
-      <c r="I13" s="33" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="28" t="s">
+      <c r="J13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -1607,9 +1677,9 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H14" s="22"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="28"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="29"/>
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1618,36 +1688,36 @@
       </c>
     </row>
     <row r="15" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="22"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="28"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="29"/>
       <c r="K15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H16" s="22"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="29" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="29"/>
+      <c r="L16" s="30"/>
     </row>
     <row r="17" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="22"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="30" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="30"/>
+      <c r="L17" s="31"/>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H18" s="22"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="25" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="26" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -1656,27 +1726,27 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H19" s="22"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="22"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="25"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H21" s="22"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="24" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="25" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1685,27 +1755,27 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H22" s="22"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="25"/>
       <c r="K22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="22"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="24"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H24" s="22"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="25" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="26" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1714,29 +1784,29 @@
       <c r="L24" s="11"/>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H25" s="22"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="22"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="25"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H27" s="22"/>
-      <c r="I27" s="26" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="27" t="s">
+      <c r="J27" s="28" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -1745,9 +1815,9 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H28" s="22"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="28"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="29"/>
       <c r="K28" s="7" t="s">
         <v>34</v>
       </c>
@@ -1756,36 +1826,36 @@
       </c>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H29" s="22"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="28"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29"/>
       <c r="K29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H30" s="22"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="29" t="s">
+      <c r="H30" s="23"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="29"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="22"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="30" t="s">
+      <c r="H31" s="23"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="30"/>
+      <c r="L31" s="31"/>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H32" s="22"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="25" t="s">
+      <c r="H32" s="23"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -1794,27 +1864,27 @@
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H33" s="22"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="25"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="11"/>
     </row>
     <row r="34" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="22"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="25"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H35" s="22"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="24" t="s">
+      <c r="H35" s="23"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="25" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -1823,27 +1893,27 @@
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H36" s="22"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="24"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="25"/>
       <c r="K36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="22"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="24"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="25"/>
       <c r="K37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H38" s="22"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="25" t="s">
+      <c r="H38" s="23"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="26" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -1852,87 +1922,87 @@
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H39" s="22"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="25"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="22"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="25"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="26"/>
       <c r="K40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H41" s="22"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="24" t="s">
+      <c r="H41" s="23"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="25" t="s">
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L41" s="18"/>
+      <c r="L41" s="19"/>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H42" s="22"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="24"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="25"/>
       <c r="K42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="18"/>
+      <c r="L42" s="19"/>
     </row>
     <row r="43" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="22"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="24"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="25"/>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L43" s="18"/>
+      <c r="L43" s="19"/>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H44" s="22"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="25" t="s">
+      <c r="H44" s="23"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="26" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L44" s="18"/>
+      <c r="L44" s="19"/>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H45" s="22"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="25"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L45" s="18"/>
+      <c r="L45" s="19"/>
     </row>
     <row r="46" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="22"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="25"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="26"/>
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L46" s="18"/>
+      <c r="L46" s="19"/>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H47" s="22"/>
-      <c r="I47" s="26" t="s">
+      <c r="H47" s="23"/>
+      <c r="I47" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="27" t="s">
+      <c r="J47" s="28" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="10" t="s">
@@ -1941,9 +2011,9 @@
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H48" s="22"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="28"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="29"/>
       <c r="K48" s="7" t="s">
         <v>34</v>
       </c>
@@ -1952,36 +2022,36 @@
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H49" s="22"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="28"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="29"/>
       <c r="K49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H50" s="22"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="28"/>
-      <c r="K50" s="29" t="s">
+      <c r="H50" s="23"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="29"/>
+      <c r="K50" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="29"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="22"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="30" t="s">
+      <c r="H51" s="23"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="30"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H52" s="22"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="25" t="s">
+      <c r="H52" s="23"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="26" t="s">
         <v>22</v>
       </c>
       <c r="K52" s="4" t="s">
@@ -1990,27 +2060,27 @@
       <c r="L52" s="11"/>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H53" s="22"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="25"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="26"/>
       <c r="K53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="22"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="25"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="26"/>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L54" s="11"/>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H55" s="22"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="31" t="s">
+      <c r="H55" s="23"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="32" t="s">
         <v>23</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -2019,58 +2089,58 @@
       <c r="L55" s="11"/>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H56" s="22"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="31"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="32"/>
       <c r="K56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="22"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="32"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="33"/>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="8:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="H58" s="22"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19" t="s">
+      <c r="H58" s="23"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
+      <c r="K58" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L58" s="18"/>
+      <c r="L58" s="19"/>
     </row>
     <row r="59" spans="8:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="H59" s="22"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19" t="s">
+      <c r="H59" s="23"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
+      <c r="K59" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="L59" s="18"/>
+      <c r="L59" s="19"/>
     </row>
     <row r="60" spans="8:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="H60" s="22"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19" t="s">
+      <c r="H60" s="23"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
+      <c r="K60" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="L60" s="18"/>
+      <c r="L60" s="19"/>
     </row>
     <row r="61" spans="8:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="23"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="21" t="s">
+      <c r="H61" s="24"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L61" s="20"/>
+      <c r="L61" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="27">
@@ -2110,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376D8B33-D451-2041-9AE8-F7209323A56A}">
   <dimension ref="H1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="O41" sqref="O41"/>
+    <sheetView topLeftCell="G32" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2137,675 +2207,675 @@
         <v>15</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="38"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="39"/>
       <c r="K2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" s="61" t="s">
-        <v>110</v>
+      <c r="L2" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H3" s="22"/>
-      <c r="I3" s="36" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="43"/>
-      <c r="K3" s="16" t="s">
+      <c r="J3" s="44"/>
+      <c r="K3" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="61"/>
+      <c r="L3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="M3" s="62"/>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H4" s="22"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="28" t="s">
+      <c r="H4" s="23"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="29" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="61"/>
+      <c r="L4" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="M4" s="62"/>
     </row>
     <row r="5" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="22"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="44" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="39"/>
-      <c r="M5" s="61"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H6" s="22"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="16" t="s">
+      <c r="H6" s="23"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" s="61"/>
+      <c r="L6" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="62"/>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H7" s="22"/>
-      <c r="I7" s="33" t="s">
+      <c r="H7" s="23"/>
+      <c r="I7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="29" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="M7" s="61"/>
+      <c r="L7" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" s="62"/>
     </row>
     <row r="8" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="22"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="44" t="s">
+      <c r="H8" s="23"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="28"/>
-      <c r="M8" s="61"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="62"/>
     </row>
     <row r="9" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H9" s="22"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="24" t="s">
+      <c r="H9" s="23"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="25" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M9" s="61"/>
+      <c r="L9" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="62"/>
     </row>
     <row r="10" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="22"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="45"/>
-      <c r="K10" s="44" t="s">
+      <c r="H10" s="23"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="45"/>
-      <c r="M10" s="61"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="62"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H11" s="22"/>
-      <c r="I11" s="49" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="43"/>
+      <c r="K11" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="L11" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" s="61"/>
+      <c r="L11" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="M11" s="62"/>
     </row>
     <row r="12" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H12" s="22"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="28" t="s">
+      <c r="H12" s="23"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="M12" s="61"/>
+      <c r="L12" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="62"/>
     </row>
     <row r="13" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="22"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="44" t="s">
+      <c r="H13" s="23"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="28"/>
-      <c r="M13" s="61"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="62"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="22"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="24" t="s">
+      <c r="H14" s="23"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="M14" s="61"/>
+      <c r="L14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="62"/>
     </row>
     <row r="15" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="22"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="44" t="s">
+      <c r="H15" s="23"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="24"/>
-      <c r="M15" s="61"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="62"/>
     </row>
     <row r="16" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="22"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="28" t="s">
+      <c r="H16" s="23"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="M16" s="61"/>
+      <c r="L16" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="22"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="44" t="s">
+      <c r="H17" s="23"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="58"/>
-      <c r="M17" s="61"/>
+      <c r="L17" s="59"/>
+      <c r="M17" s="62"/>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H18" s="22"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="24" t="s">
+      <c r="H18" s="23"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="25" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L18" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="M18" s="61"/>
+      <c r="L18" s="60" t="s">
+        <v>91</v>
+      </c>
+      <c r="M18" s="62"/>
     </row>
     <row r="19" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="22"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="44" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="61"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="62"/>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H20" s="22"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="28" t="s">
+      <c r="H20" s="23"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="29" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="61"/>
+      <c r="L20" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="62"/>
     </row>
     <row r="21" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="22"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="44" t="s">
+      <c r="H21" s="23"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="55"/>
-      <c r="M21" s="61"/>
+      <c r="L21" s="56"/>
+      <c r="M21" s="62"/>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H22" s="22"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="24" t="s">
+      <c r="H22" s="23"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="25" t="s">
         <v>26</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L22" s="59" t="s">
-        <v>92</v>
-      </c>
-      <c r="M22" s="61"/>
+      <c r="L22" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="M22" s="62"/>
     </row>
     <row r="23" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="22"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="44" t="s">
+      <c r="H23" s="23"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="59"/>
-      <c r="M23" s="61"/>
+      <c r="L23" s="60"/>
+      <c r="M23" s="62"/>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H24" s="22"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="28" t="s">
+      <c r="H24" s="23"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="29" t="s">
         <v>53</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="M24" s="61"/>
+      <c r="L24" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="M24" s="62"/>
     </row>
     <row r="25" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="22"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="44" t="s">
+      <c r="H25" s="23"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="55"/>
-      <c r="M25" s="61"/>
+      <c r="L25" s="56"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H26" s="22"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="24" t="s">
+      <c r="H26" s="23"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="25" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="M26" s="61"/>
+      <c r="L26" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="M26" s="62"/>
     </row>
     <row r="27" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="22"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="44" t="s">
+      <c r="H27" s="23"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="57"/>
-      <c r="M27" s="62"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="63"/>
     </row>
     <row r="28" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H28" s="22"/>
-      <c r="I28" s="49" t="s">
+      <c r="H28" s="23"/>
+      <c r="I28" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="41"/>
-      <c r="K28" s="43" t="s">
+      <c r="J28" s="42"/>
+      <c r="K28" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="L28" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="M28" s="66" t="s">
-        <v>111</v>
+      <c r="L28" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="67" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H29" s="22"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="28" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="29" t="s">
         <v>56</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="58" t="s">
-        <v>96</v>
-      </c>
-      <c r="M29" s="67"/>
+      <c r="L29" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="68"/>
     </row>
     <row r="30" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="22"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="44" t="s">
+      <c r="H30" s="23"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="55"/>
-      <c r="M30" s="67"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="68"/>
     </row>
     <row r="31" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H31" s="22"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="24" t="s">
+      <c r="H31" s="23"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="25" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L31" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" s="67"/>
+      <c r="L31" s="60" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="68"/>
     </row>
     <row r="32" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="22"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="44" t="s">
+      <c r="H32" s="23"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L32" s="59"/>
-      <c r="M32" s="67"/>
+      <c r="L32" s="60"/>
+      <c r="M32" s="68"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H33" s="22"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="28" t="s">
+      <c r="H33" s="23"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="29" t="s">
         <v>58</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" s="67"/>
+      <c r="L33" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="M33" s="68"/>
     </row>
     <row r="34" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="22"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="44" t="s">
+      <c r="H34" s="23"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="55"/>
-      <c r="M34" s="67"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="68"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H35" s="22"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="24" t="s">
+      <c r="H35" s="23"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="25" t="s">
         <v>51</v>
       </c>
       <c r="K35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L35" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="M35" s="67"/>
+      <c r="L35" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="68"/>
     </row>
     <row r="36" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="22"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="44" t="s">
+      <c r="H36" s="23"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="25"/>
+      <c r="K36" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L36" s="59"/>
-      <c r="M36" s="67"/>
+      <c r="L36" s="60"/>
+      <c r="M36" s="68"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H37" s="22"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="28" t="s">
+      <c r="H37" s="23"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="29" t="s">
         <v>52</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="M37" s="67"/>
+      <c r="L37" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="68"/>
     </row>
     <row r="38" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="22"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="44" t="s">
+      <c r="H38" s="23"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L38" s="55"/>
-      <c r="M38" s="67"/>
+      <c r="L38" s="56"/>
+      <c r="M38" s="68"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H39" s="22"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="24" t="s">
+      <c r="H39" s="23"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="25" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="M39" s="67"/>
+      <c r="L39" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="M39" s="68"/>
     </row>
     <row r="40" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="22"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="44" t="s">
+      <c r="H40" s="23"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L40" s="59"/>
-      <c r="M40" s="67"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="68"/>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H41" s="22"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="28" t="s">
+      <c r="H41" s="23"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="29" t="s">
         <v>61</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L41" s="58" t="s">
-        <v>102</v>
-      </c>
-      <c r="M41" s="67"/>
+      <c r="L41" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="M41" s="68"/>
     </row>
     <row r="42" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="22"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="44" t="s">
+      <c r="H42" s="23"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="29"/>
+      <c r="K42" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="55"/>
-      <c r="M42" s="67"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="68"/>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H43" s="22"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="24" t="s">
+      <c r="H43" s="23"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="25" t="s">
         <v>62</v>
       </c>
       <c r="K43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L43" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="M43" s="67"/>
+      <c r="L43" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="M43" s="68"/>
     </row>
     <row r="44" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="22"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="44" t="s">
+      <c r="H44" s="23"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="25"/>
+      <c r="K44" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L44" s="60"/>
-      <c r="M44" s="68"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="69"/>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H45" s="22"/>
-      <c r="I45" s="52" t="s">
+      <c r="H45" s="23"/>
+      <c r="I45" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="41"/>
-      <c r="K45" s="43" t="s">
+      <c r="J45" s="42"/>
+      <c r="K45" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="L45" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="M45" s="63" t="s">
-        <v>112</v>
+      <c r="L45" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="M45" s="64" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H46" s="22"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="28" t="s">
+      <c r="H46" s="23"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="29" t="s">
         <v>63</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="M46" s="64"/>
+      <c r="L46" s="59" t="s">
+        <v>106</v>
+      </c>
+      <c r="M46" s="65"/>
     </row>
     <row r="47" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="22"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="44" t="s">
+      <c r="H47" s="23"/>
+      <c r="I47" s="47"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="55"/>
-      <c r="M47" s="64"/>
+      <c r="L47" s="56"/>
+      <c r="M47" s="65"/>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H48" s="22"/>
-      <c r="I48" s="46"/>
-      <c r="J48" s="24" t="s">
+      <c r="H48" s="23"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="25" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L48" s="59" t="s">
-        <v>106</v>
-      </c>
-      <c r="M48" s="64"/>
+      <c r="L48" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="M48" s="65"/>
     </row>
     <row r="49" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="22"/>
-      <c r="I49" s="46"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="44" t="s">
+      <c r="H49" s="23"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L49" s="59"/>
-      <c r="M49" s="64"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="65"/>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H50" s="22"/>
-      <c r="I50" s="46"/>
-      <c r="J50" s="28" t="s">
+      <c r="H50" s="23"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="29" t="s">
         <v>65</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="M50" s="64"/>
+      <c r="L50" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="M50" s="65"/>
     </row>
     <row r="51" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="22"/>
-      <c r="I51" s="46"/>
-      <c r="J51" s="28"/>
-      <c r="K51" s="44" t="s">
+      <c r="H51" s="23"/>
+      <c r="I51" s="47"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="64"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="65"/>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H52" s="22"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="24" t="s">
+      <c r="H52" s="23"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="25" t="s">
         <v>66</v>
       </c>
       <c r="K52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L52" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="M52" s="64"/>
+      <c r="L52" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="M52" s="65"/>
     </row>
     <row r="53" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="22"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="45"/>
-      <c r="K53" s="44" t="s">
+      <c r="H53" s="23"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="L53" s="60"/>
-      <c r="M53" s="65"/>
+      <c r="L53" s="61"/>
+      <c r="M53" s="66"/>
     </row>
     <row r="54" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="22"/>
-      <c r="I54" s="51" t="s">
+      <c r="H54" s="23"/>
+      <c r="I54" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="J54" s="55"/>
+      <c r="K54" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L54" s="41"/>
+    </row>
+    <row r="55" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H55" s="24"/>
+      <c r="I55" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="54"/>
-      <c r="K54" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="L54" s="40"/>
-    </row>
-    <row r="55" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H55" s="23"/>
-      <c r="I55" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="J55" s="20"/>
-      <c r="K55" s="21" t="s">
+      <c r="J55" s="21"/>
+      <c r="K55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="L55" s="20"/>
+      <c r="L55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="55">
@@ -2874,11 +2944,12 @@
   <dimension ref="E1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G3"/>
+      <selection activeCell="E1" sqref="E1:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="65" customWidth="1"/>
@@ -2898,28 +2969,33 @@
       </c>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="35" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="14"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="35"/>
+      <c r="E3" s="36"/>
       <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
+    <row r="6" spans="5:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+    </row>
     <row r="7" spans="5:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="E7" s="37"/>
+      <c r="E7" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2927,4 +3003,123 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713C6914-D67A-BA42-9F0F-DF7DE90A03D7}">
+  <dimension ref="D1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="68.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="4:8" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F1" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="4:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D3" s="71"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="76"/>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D4" s="71"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="76"/>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D5" s="71"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="76"/>
+    </row>
+    <row r="6" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="71"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="72" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" s="77"/>
+    </row>
+    <row r="7" spans="4:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="D7" s="71"/>
+      <c r="E7" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="H2:H6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Network-Architecture.xlsx
+++ b/Network-Architecture.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/grok/Nutstore Files/coding/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82306C6E-D9FC-5345-81F1-206F7EF19341}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A22BCEC-1F42-9248-803F-49D5E2FA1117}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{5986AF1E-874D-2443-B2A8-91270C641F35}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="4" xr2:uid="{5986AF1E-874D-2443-B2A8-91270C641F35}"/>
   </bookViews>
   <sheets>
     <sheet name="resnet50_v1s" sheetId="1" r:id="rId1"/>
     <sheet name="darknet53" sheetId="2" r:id="rId2"/>
     <sheet name="DarknetBasicBlockV3" sheetId="3" r:id="rId3"/>
     <sheet name="YOLODetectionBlockV3" sheetId="4" r:id="rId4"/>
+    <sheet name="vgg16_atrous_300" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="166">
   <si>
     <t>Block</t>
   </si>
@@ -649,6 +650,198 @@
   </si>
   <si>
     <t>Conv2D(c=1*channel,k=1,p=0,s=1) + BN + LeakyReLU(0.1)</t>
+  </si>
+  <si>
+    <t>stages</t>
+  </si>
+  <si>
+    <t>extras</t>
+  </si>
+  <si>
+    <t>stage[0]</t>
+  </si>
+  <si>
+    <t>stage[1]</t>
+  </si>
+  <si>
+    <t>stage[2]</t>
+  </si>
+  <si>
+    <t>stage[3]</t>
+  </si>
+  <si>
+    <t>stage[4]</t>
+  </si>
+  <si>
+    <t>stage[5]</t>
+  </si>
+  <si>
+    <t>p: pading</t>
+  </si>
+  <si>
+    <t>d: dilation</t>
+  </si>
+  <si>
+    <t>norm4</t>
+  </si>
+  <si>
+    <t>Normalize(512, 20)</t>
+  </si>
+  <si>
+    <t>extras[0]</t>
+  </si>
+  <si>
+    <t>Conv (c=256, k=1, s=1, p=0) + BN + ReLU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conv (c=512, k=3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>s=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p=1) + BN + ReLU</t>
+    </r>
+  </si>
+  <si>
+    <t>extras[1]</t>
+  </si>
+  <si>
+    <t>Conv (c=128, k=1, s=1, p=0) + BN + ReLU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Conv (c=256, k=3, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>s=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>, p=1) + BN + ReLU</t>
+    </r>
+  </si>
+  <si>
+    <t>extras[2]</t>
+  </si>
+  <si>
+    <t>Conv (c=256, k=3, s=1, p=1) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>extras[3]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MaxPooling(k=2, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>s=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Monaco"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>outputs[0]</t>
+  </si>
+  <si>
+    <t>MaxPooling(k=3, s=1)</t>
+  </si>
+  <si>
+    <t>outputs[1]</t>
+  </si>
+  <si>
+    <t>outputs[2]</t>
+  </si>
+  <si>
+    <t>outputs[3]</t>
+  </si>
+  <si>
+    <t>outputs[4]</t>
+  </si>
+  <si>
+    <t>outputs[5]</t>
+  </si>
+  <si>
+    <t>下采样</t>
+  </si>
+  <si>
+    <t>Conv (c=256, k=3, s=1, p=0) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>conv4_3 - 8</t>
+  </si>
+  <si>
+    <t>fc7 - 16</t>
+  </si>
+  <si>
+    <t>conv6_2 - 32</t>
+  </si>
+  <si>
+    <t>conv7_2 - 64</t>
+  </si>
+  <si>
+    <t>conv8_2 - 64</t>
+  </si>
+  <si>
+    <t>conv9_2 - 64</t>
+  </si>
+  <si>
+    <t>Conv (c=64, k=3, p=1) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>Conv (c=128, k=3, p=1) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>Conv (c=256, k=3, p=1) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>Conv (c=512, k=3, p=1) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>Conv (c=1024, k=3, p=6, d=6) + BN + ReLU</t>
+  </si>
+  <si>
+    <t>Conv (c=1024, k=1) + BN + ReLU</t>
   </si>
 </sst>
 </file>
@@ -720,7 +913,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -859,8 +1052,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD7EE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -972,11 +1171,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1040,58 +1250,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1105,76 +1273,133 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1183,15 +1408,6 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,6 +1415,43 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1526,7 +1779,7 @@
   <dimension ref="H1:L61"/>
   <sheetViews>
     <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="E14" sqref="A1:XFD1048576"/>
+      <selection activeCell="H1" sqref="H1:L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1555,7 +1808,7 @@
       </c>
     </row>
     <row r="2" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="47" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="15"/>
@@ -1566,7 +1819,7 @@
       <c r="L2" s="15"/>
     </row>
     <row r="3" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="23"/>
+      <c r="H3" s="47"/>
       <c r="I3" s="15"/>
       <c r="J3" s="15"/>
       <c r="K3" s="17" t="s">
@@ -1575,11 +1828,11 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H4" s="23"/>
-      <c r="I4" s="37" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="35" t="s">
+      <c r="J4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1588,27 +1841,27 @@
       <c r="L4" s="15"/>
     </row>
     <row r="5" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H5" s="23"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="36"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L5" s="15"/>
     </row>
     <row r="6" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H6" s="23"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="36"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="40"/>
       <c r="K6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L6" s="15"/>
     </row>
     <row r="7" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H7" s="23"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="26" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="41" t="s">
         <v>7</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1617,27 +1870,27 @@
       <c r="L7" s="15"/>
     </row>
     <row r="8" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H8" s="23"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="26"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L8" s="15"/>
     </row>
     <row r="9" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H9" s="23"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="26"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="41"/>
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L9" s="15"/>
     </row>
     <row r="10" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H10" s="23"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="32" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="42" t="s">
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
@@ -1646,29 +1899,29 @@
       <c r="L10" s="15"/>
     </row>
     <row r="11" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H11" s="23"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="32"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L11" s="15"/>
     </row>
     <row r="12" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H12" s="23"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="33"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="43"/>
       <c r="K12" s="6" t="s">
         <v>5</v>
       </c>
       <c r="L12" s="15"/>
     </row>
     <row r="13" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H13" s="23"/>
-      <c r="I13" s="34" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="29" t="s">
+      <c r="J13" s="44" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="10" t="s">
@@ -1677,9 +1930,9 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H14" s="23"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="29"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="44"/>
       <c r="K14" s="7" t="s">
         <v>34</v>
       </c>
@@ -1688,36 +1941,36 @@
       </c>
     </row>
     <row r="15" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H15" s="23"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="29"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="44"/>
       <c r="K15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H16" s="23"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L16" s="30"/>
+      <c r="L16" s="37"/>
     </row>
     <row r="17" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="23"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="31" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="31"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H18" s="23"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="26" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="41" t="s">
         <v>11</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -1726,27 +1979,27 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H19" s="23"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="26"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="41"/>
       <c r="K19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H20" s="23"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="26"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="41"/>
       <c r="K20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L20" s="11"/>
     </row>
     <row r="21" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H21" s="23"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="25" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="46" t="s">
         <v>12</v>
       </c>
       <c r="K21" s="1" t="s">
@@ -1755,27 +2008,27 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H22" s="23"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="25"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="46"/>
       <c r="K22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="23"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="25"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="46"/>
       <c r="K23" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L23" s="11"/>
     </row>
     <row r="24" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H24" s="23"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="26" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="41" t="s">
         <v>13</v>
       </c>
       <c r="K24" s="1" t="s">
@@ -1784,29 +2037,29 @@
       <c r="L24" s="11"/>
     </row>
     <row r="25" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H25" s="23"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="26"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="41"/>
       <c r="K25" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H26" s="23"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="26"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="41"/>
       <c r="K26" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H27" s="23"/>
-      <c r="I27" s="27" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="45" t="s">
         <v>21</v>
       </c>
       <c r="K27" s="10" t="s">
@@ -1815,9 +2068,9 @@
       <c r="L27" s="10"/>
     </row>
     <row r="28" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H28" s="23"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="29"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="7" t="s">
         <v>34</v>
       </c>
@@ -1826,36 +2079,36 @@
       </c>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H29" s="23"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="29"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="44"/>
       <c r="K29" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L29" s="8"/>
     </row>
     <row r="30" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H30" s="23"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30" t="s">
+      <c r="H30" s="47"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L30" s="30"/>
+      <c r="L30" s="37"/>
     </row>
     <row r="31" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H31" s="23"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="31" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L31" s="31"/>
+      <c r="L31" s="38"/>
     </row>
     <row r="32" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H32" s="23"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="26" t="s">
+      <c r="H32" s="47"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="41" t="s">
         <v>22</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -1864,27 +2117,27 @@
       <c r="L32" s="11"/>
     </row>
     <row r="33" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H33" s="23"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="26"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="41"/>
       <c r="K33" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L33" s="11"/>
     </row>
     <row r="34" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="23"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="26"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="41"/>
       <c r="K34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H35" s="23"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="25" t="s">
+      <c r="H35" s="47"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -1893,27 +2146,27 @@
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H36" s="23"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="25"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="46"/>
       <c r="K36" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L36" s="11"/>
     </row>
     <row r="37" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="23"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="25"/>
+      <c r="H37" s="47"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="46"/>
       <c r="K37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H38" s="23"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="26" t="s">
+      <c r="H38" s="47"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="41" t="s">
         <v>24</v>
       </c>
       <c r="K38" s="1" t="s">
@@ -1922,27 +2175,27 @@
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H39" s="23"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="26"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="41"/>
       <c r="K39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L39" s="11"/>
     </row>
     <row r="40" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="23"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="26"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="41"/>
       <c r="K40" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H41" s="23"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="25" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="46" t="s">
         <v>25</v>
       </c>
       <c r="K41" s="1" t="s">
@@ -1951,27 +2204,27 @@
       <c r="L41" s="19"/>
     </row>
     <row r="42" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H42" s="23"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="25"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="46"/>
       <c r="K42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L42" s="19"/>
     </row>
     <row r="43" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H43" s="23"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="46"/>
       <c r="K43" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L43" s="19"/>
     </row>
     <row r="44" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H44" s="23"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="26" t="s">
+      <c r="H44" s="47"/>
+      <c r="I44" s="49"/>
+      <c r="J44" s="41" t="s">
         <v>26</v>
       </c>
       <c r="K44" s="1" t="s">
@@ -1980,29 +2233,29 @@
       <c r="L44" s="19"/>
     </row>
     <row r="45" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H45" s="23"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="26"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="49"/>
+      <c r="J45" s="41"/>
       <c r="K45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L45" s="19"/>
     </row>
     <row r="46" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H46" s="23"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="26"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="49"/>
+      <c r="J46" s="41"/>
       <c r="K46" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L46" s="19"/>
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H47" s="23"/>
-      <c r="I47" s="27" t="s">
+      <c r="H47" s="47"/>
+      <c r="I47" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J47" s="28" t="s">
+      <c r="J47" s="45" t="s">
         <v>21</v>
       </c>
       <c r="K47" s="10" t="s">
@@ -2011,9 +2264,9 @@
       <c r="L47" s="10"/>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H48" s="23"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="29"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="7" t="s">
         <v>34</v>
       </c>
@@ -2022,36 +2275,36 @@
       </c>
     </row>
     <row r="49" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H49" s="23"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="29"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="49"/>
+      <c r="J49" s="44"/>
       <c r="K49" s="8" t="s">
         <v>17</v>
       </c>
       <c r="L49" s="8"/>
     </row>
     <row r="50" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H50" s="23"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="30" t="s">
+      <c r="H50" s="47"/>
+      <c r="I50" s="49"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="30"/>
+      <c r="L50" s="37"/>
     </row>
     <row r="51" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="23"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="31" t="s">
+      <c r="H51" s="47"/>
+      <c r="I51" s="49"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="L51" s="31"/>
+      <c r="L51" s="38"/>
     </row>
     <row r="52" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H52" s="23"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="26" t="s">
+      <c r="H52" s="47"/>
+      <c r="I52" s="49"/>
+      <c r="J52" s="41" t="s">
         <v>22</v>
       </c>
       <c r="K52" s="4" t="s">
@@ -2060,27 +2313,27 @@
       <c r="L52" s="11"/>
     </row>
     <row r="53" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H53" s="23"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="26"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="49"/>
+      <c r="J53" s="41"/>
       <c r="K53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L53" s="11"/>
     </row>
     <row r="54" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H54" s="23"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="26"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="49"/>
+      <c r="J54" s="41"/>
       <c r="K54" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L54" s="11"/>
     </row>
     <row r="55" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H55" s="23"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="32" t="s">
+      <c r="H55" s="47"/>
+      <c r="I55" s="49"/>
+      <c r="J55" s="42" t="s">
         <v>23</v>
       </c>
       <c r="K55" s="1" t="s">
@@ -2089,25 +2342,25 @@
       <c r="L55" s="11"/>
     </row>
     <row r="56" spans="8:12" x14ac:dyDescent="0.2">
-      <c r="H56" s="23"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="32"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="49"/>
+      <c r="J56" s="42"/>
       <c r="K56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="8:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H57" s="23"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="33"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="49"/>
+      <c r="J57" s="43"/>
       <c r="K57" s="3" t="s">
         <v>5</v>
       </c>
       <c r="L57" s="11"/>
     </row>
     <row r="58" spans="8:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="H58" s="23"/>
+      <c r="H58" s="47"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
       <c r="K58" s="20" t="s">
@@ -2116,7 +2369,7 @@
       <c r="L58" s="19"/>
     </row>
     <row r="59" spans="8:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="H59" s="23"/>
+      <c r="H59" s="47"/>
       <c r="I59" s="19"/>
       <c r="J59" s="19"/>
       <c r="K59" s="20" t="s">
@@ -2125,7 +2378,7 @@
       <c r="L59" s="19"/>
     </row>
     <row r="60" spans="8:12" ht="19" x14ac:dyDescent="0.25">
-      <c r="H60" s="23"/>
+      <c r="H60" s="47"/>
       <c r="I60" s="19"/>
       <c r="J60" s="19"/>
       <c r="K60" s="20" t="s">
@@ -2134,7 +2387,7 @@
       <c r="L60" s="19"/>
     </row>
     <row r="61" spans="8:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H61" s="24"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="21"/>
       <c r="J61" s="21"/>
       <c r="K61" s="22" t="s">
@@ -2144,22 +2397,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="J4:J6"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J13:J17"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="J52:J54"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="J27:J31"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="J35:J37"/>
-    <mergeCell ref="J38:J40"/>
     <mergeCell ref="H2:H61"/>
     <mergeCell ref="J41:J43"/>
     <mergeCell ref="J44:J46"/>
@@ -2171,6 +2408,22 @@
     <mergeCell ref="I4:I12"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="J21:J23"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="J52:J54"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="J27:J31"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="J35:J37"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J13:J17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2180,7 +2433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376D8B33-D451-2041-9AE8-F7209323A56A}">
   <dimension ref="H1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="G32" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="150" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -2214,211 +2467,211 @@
       </c>
     </row>
     <row r="2" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="47" t="s">
         <v>36</v>
       </c>
       <c r="I2" s="15"/>
-      <c r="J2" s="39"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="62" t="s">
+      <c r="M2" s="52" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H3" s="23"/>
-      <c r="I3" s="37" t="s">
+      <c r="H3" s="47"/>
+      <c r="I3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="44"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="17" t="s">
         <v>69</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="M3" s="62"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H4" s="23"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="29" t="s">
+      <c r="H4" s="47"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="44" t="s">
         <v>6</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="29" t="s">
+      <c r="L4" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="62"/>
+      <c r="M4" s="52"/>
     </row>
     <row r="5" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="23"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="45" t="s">
+      <c r="H5" s="47"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="62"/>
+      <c r="L5" s="66"/>
+      <c r="M5" s="52"/>
     </row>
     <row r="6" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H6" s="23"/>
+      <c r="H6" s="47"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="44"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="17" t="s">
         <v>67</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="M6" s="62"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H7" s="23"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="47"/>
+      <c r="I7" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="29" t="s">
+      <c r="J7" s="44" t="s">
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="M7" s="62"/>
+      <c r="M7" s="52"/>
     </row>
     <row r="8" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H8" s="23"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="45" t="s">
+      <c r="H8" s="47"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="L8" s="29"/>
-      <c r="M8" s="62"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="52"/>
     </row>
     <row r="9" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H9" s="23"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="25" t="s">
+      <c r="H9" s="47"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="46" t="s">
         <v>11</v>
       </c>
       <c r="K9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L9" s="25" t="s">
+      <c r="L9" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="M9" s="62"/>
+      <c r="M9" s="52"/>
     </row>
     <row r="10" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H10" s="23"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="45" t="s">
+      <c r="H10" s="47"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="31" t="s">
         <v>47</v>
       </c>
-      <c r="L10" s="46"/>
-      <c r="M10" s="62"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="52"/>
     </row>
     <row r="11" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H11" s="23"/>
-      <c r="I11" s="50" t="s">
+      <c r="H11" s="47"/>
+      <c r="I11" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="43"/>
+      <c r="J11" s="29"/>
       <c r="K11" s="17" t="s">
         <v>68</v>
       </c>
       <c r="L11" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="62"/>
+      <c r="M11" s="52"/>
     </row>
     <row r="12" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H12" s="23"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="29" t="s">
+      <c r="H12" s="47"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="44" t="s">
         <v>21</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="29" t="s">
+      <c r="L12" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="62"/>
+      <c r="M12" s="52"/>
     </row>
     <row r="13" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H13" s="23"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="45" t="s">
+      <c r="H13" s="47"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="29"/>
-      <c r="M13" s="62"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="52"/>
     </row>
     <row r="14" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H14" s="23"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25" t="s">
+      <c r="H14" s="47"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="46" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L14" s="25" t="s">
+      <c r="L14" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="M14" s="62"/>
+      <c r="M14" s="52"/>
     </row>
     <row r="15" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H15" s="23"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="45" t="s">
+      <c r="H15" s="47"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L15" s="25"/>
-      <c r="M15" s="62"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="52"/>
     </row>
     <row r="16" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="23"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="29" t="s">
+      <c r="H16" s="47"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="44" t="s">
         <v>23</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="M16" s="62"/>
+      <c r="M16" s="52"/>
     </row>
     <row r="17" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="23"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="45" t="s">
+      <c r="H17" s="47"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="59"/>
-      <c r="M17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="52"/>
     </row>
     <row r="18" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H18" s="23"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25" t="s">
+      <c r="H18" s="47"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="46" t="s">
         <v>24</v>
       </c>
       <c r="K18" s="5" t="s">
@@ -2427,46 +2680,46 @@
       <c r="L18" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="62"/>
+      <c r="M18" s="52"/>
     </row>
     <row r="19" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H19" s="23"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="45" t="s">
+      <c r="H19" s="47"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="31" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="60"/>
-      <c r="M19" s="62"/>
+      <c r="M19" s="52"/>
     </row>
     <row r="20" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H20" s="23"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="29" t="s">
+      <c r="H20" s="47"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="44" t="s">
         <v>25</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L20" s="59" t="s">
+      <c r="L20" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="62"/>
+      <c r="M20" s="52"/>
     </row>
     <row r="21" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H21" s="23"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="45" t="s">
+      <c r="H21" s="47"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L21" s="56"/>
-      <c r="M21" s="62"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="52"/>
     </row>
     <row r="22" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H22" s="23"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25" t="s">
+      <c r="H22" s="47"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="46" t="s">
         <v>26</v>
       </c>
       <c r="K22" s="5" t="s">
@@ -2475,110 +2728,110 @@
       <c r="L22" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="62"/>
+      <c r="M22" s="52"/>
     </row>
     <row r="23" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H23" s="23"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="45" t="s">
+      <c r="H23" s="47"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="31" t="s">
         <v>49</v>
       </c>
       <c r="L23" s="60"/>
-      <c r="M23" s="62"/>
+      <c r="M23" s="52"/>
     </row>
     <row r="24" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H24" s="23"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="29" t="s">
+      <c r="H24" s="47"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="44" t="s">
         <v>53</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="59" t="s">
+      <c r="L24" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="M24" s="62"/>
+      <c r="M24" s="52"/>
     </row>
     <row r="25" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H25" s="23"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="45" t="s">
+      <c r="H25" s="47"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L25" s="56"/>
-      <c r="M25" s="62"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="52"/>
     </row>
     <row r="26" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H26" s="23"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="25" t="s">
+      <c r="H26" s="47"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="46" t="s">
         <v>54</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="L26" s="57" t="s">
+      <c r="L26" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="62"/>
+      <c r="M26" s="52"/>
     </row>
     <row r="27" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H27" s="23"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="45" t="s">
+      <c r="H27" s="47"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="31" t="s">
         <v>49</v>
       </c>
-      <c r="L27" s="58"/>
-      <c r="M27" s="63"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="53"/>
     </row>
     <row r="28" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H28" s="23"/>
-      <c r="I28" s="50" t="s">
+      <c r="H28" s="47"/>
+      <c r="I28" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="44" t="s">
+      <c r="J28" s="28"/>
+      <c r="K28" s="30" t="s">
         <v>55</v>
       </c>
       <c r="L28" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="M28" s="67" t="s">
+      <c r="M28" s="54" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H29" s="23"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="29" t="s">
+      <c r="H29" s="47"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="44" t="s">
         <v>56</v>
       </c>
       <c r="K29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L29" s="59" t="s">
+      <c r="L29" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="M29" s="68"/>
+      <c r="M29" s="55"/>
     </row>
     <row r="30" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H30" s="23"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="45" t="s">
+      <c r="H30" s="47"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L30" s="56"/>
-      <c r="M30" s="68"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="55"/>
     </row>
     <row r="31" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H31" s="23"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="25" t="s">
+      <c r="H31" s="47"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="46" t="s">
         <v>57</v>
       </c>
       <c r="K31" s="5" t="s">
@@ -2587,46 +2840,46 @@
       <c r="L31" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="M31" s="68"/>
+      <c r="M31" s="55"/>
     </row>
     <row r="32" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H32" s="23"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="45" t="s">
+      <c r="H32" s="47"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="46"/>
+      <c r="K32" s="31" t="s">
         <v>72</v>
       </c>
       <c r="L32" s="60"/>
-      <c r="M32" s="68"/>
+      <c r="M32" s="55"/>
     </row>
     <row r="33" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H33" s="23"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="29" t="s">
+      <c r="H33" s="47"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="44" t="s">
         <v>58</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="59" t="s">
+      <c r="L33" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="M33" s="68"/>
+      <c r="M33" s="55"/>
     </row>
     <row r="34" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H34" s="23"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="29"/>
-      <c r="K34" s="45" t="s">
+      <c r="H34" s="47"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="68"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="55"/>
     </row>
     <row r="35" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H35" s="23"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="25" t="s">
+      <c r="H35" s="47"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="46" t="s">
         <v>51</v>
       </c>
       <c r="K35" s="5" t="s">
@@ -2635,46 +2888,46 @@
       <c r="L35" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="M35" s="68"/>
+      <c r="M35" s="55"/>
     </row>
     <row r="36" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H36" s="23"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="25"/>
-      <c r="K36" s="45" t="s">
+      <c r="H36" s="47"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="31" t="s">
         <v>72</v>
       </c>
       <c r="L36" s="60"/>
-      <c r="M36" s="68"/>
+      <c r="M36" s="55"/>
     </row>
     <row r="37" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H37" s="23"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="29" t="s">
+      <c r="H37" s="47"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="44" t="s">
         <v>52</v>
       </c>
       <c r="K37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L37" s="59" t="s">
+      <c r="L37" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="M37" s="68"/>
+      <c r="M37" s="55"/>
     </row>
     <row r="38" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H38" s="23"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="45" t="s">
+      <c r="H38" s="47"/>
+      <c r="I38" s="49"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L38" s="56"/>
-      <c r="M38" s="68"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="55"/>
     </row>
     <row r="39" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H39" s="23"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="25" t="s">
+      <c r="H39" s="47"/>
+      <c r="I39" s="49"/>
+      <c r="J39" s="46" t="s">
         <v>60</v>
       </c>
       <c r="K39" s="5" t="s">
@@ -2683,46 +2936,46 @@
       <c r="L39" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="68"/>
+      <c r="M39" s="55"/>
     </row>
     <row r="40" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H40" s="23"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="45" t="s">
+      <c r="H40" s="47"/>
+      <c r="I40" s="49"/>
+      <c r="J40" s="46"/>
+      <c r="K40" s="31" t="s">
         <v>72</v>
       </c>
       <c r="L40" s="60"/>
-      <c r="M40" s="68"/>
+      <c r="M40" s="55"/>
     </row>
     <row r="41" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H41" s="23"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="29" t="s">
+      <c r="H41" s="47"/>
+      <c r="I41" s="49"/>
+      <c r="J41" s="44" t="s">
         <v>61</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L41" s="59" t="s">
+      <c r="L41" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="M41" s="68"/>
+      <c r="M41" s="55"/>
     </row>
     <row r="42" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H42" s="23"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="45" t="s">
+      <c r="H42" s="47"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="L42" s="56"/>
-      <c r="M42" s="68"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H43" s="23"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="25" t="s">
+      <c r="H43" s="47"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="46" t="s">
         <v>62</v>
       </c>
       <c r="K43" s="5" t="s">
@@ -2731,62 +2984,62 @@
       <c r="L43" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="M43" s="68"/>
+      <c r="M43" s="55"/>
     </row>
     <row r="44" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H44" s="23"/>
-      <c r="I44" s="51"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="45" t="s">
+      <c r="H44" s="47"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="46"/>
+      <c r="K44" s="31" t="s">
         <v>72</v>
       </c>
       <c r="L44" s="61"/>
-      <c r="M44" s="69"/>
+      <c r="M44" s="56"/>
     </row>
     <row r="45" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H45" s="23"/>
-      <c r="I45" s="53" t="s">
+      <c r="H45" s="47"/>
+      <c r="I45" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="42"/>
-      <c r="K45" s="44" t="s">
+      <c r="J45" s="28"/>
+      <c r="K45" s="30" t="s">
         <v>73</v>
       </c>
       <c r="L45" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="M45" s="64" t="s">
+      <c r="M45" s="57" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="46" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H46" s="23"/>
-      <c r="I46" s="47"/>
-      <c r="J46" s="29" t="s">
+      <c r="H46" s="47"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="44" t="s">
         <v>63</v>
       </c>
       <c r="K46" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="59" t="s">
+      <c r="L46" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="M46" s="65"/>
+      <c r="M46" s="58"/>
     </row>
     <row r="47" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H47" s="23"/>
-      <c r="I47" s="47"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="45" t="s">
+      <c r="H47" s="47"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="L47" s="56"/>
-      <c r="M47" s="65"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="58"/>
     </row>
     <row r="48" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H48" s="23"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="25" t="s">
+      <c r="H48" s="47"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="46" t="s">
         <v>64</v>
       </c>
       <c r="K48" s="5" t="s">
@@ -2795,46 +3048,46 @@
       <c r="L48" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="65"/>
+      <c r="M48" s="58"/>
     </row>
     <row r="49" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H49" s="23"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="25"/>
-      <c r="K49" s="45" t="s">
+      <c r="H49" s="47"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="46"/>
+      <c r="K49" s="31" t="s">
         <v>74</v>
       </c>
       <c r="L49" s="60"/>
-      <c r="M49" s="65"/>
+      <c r="M49" s="58"/>
     </row>
     <row r="50" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H50" s="23"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="29" t="s">
+      <c r="H50" s="47"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="44" t="s">
         <v>65</v>
       </c>
       <c r="K50" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L50" s="59" t="s">
+      <c r="L50" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="M50" s="65"/>
+      <c r="M50" s="58"/>
     </row>
     <row r="51" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H51" s="23"/>
-      <c r="I51" s="47"/>
-      <c r="J51" s="29"/>
-      <c r="K51" s="45" t="s">
+      <c r="H51" s="47"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="L51" s="56"/>
-      <c r="M51" s="65"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="58"/>
     </row>
     <row r="52" spans="8:13" x14ac:dyDescent="0.2">
-      <c r="H52" s="23"/>
-      <c r="I52" s="47"/>
-      <c r="J52" s="25" t="s">
+      <c r="H52" s="47"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="46" t="s">
         <v>66</v>
       </c>
       <c r="K52" s="5" t="s">
@@ -2843,32 +3096,32 @@
       <c r="L52" s="60" t="s">
         <v>109</v>
       </c>
-      <c r="M52" s="65"/>
+      <c r="M52" s="58"/>
     </row>
     <row r="53" spans="8:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H53" s="23"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="45" t="s">
+      <c r="H53" s="47"/>
+      <c r="I53" s="71"/>
+      <c r="J53" s="67"/>
+      <c r="K53" s="31" t="s">
         <v>74</v>
       </c>
       <c r="L53" s="61"/>
-      <c r="M53" s="66"/>
+      <c r="M53" s="59"/>
     </row>
     <row r="54" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H54" s="23"/>
-      <c r="I54" s="52" t="s">
+      <c r="H54" s="47"/>
+      <c r="I54" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="J54" s="55"/>
+      <c r="J54" s="33"/>
       <c r="K54" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="L54" s="41"/>
+      <c r="L54" s="27"/>
     </row>
     <row r="55" spans="8:13" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H55" s="24"/>
-      <c r="I55" s="52" t="s">
+      <c r="H55" s="48"/>
+      <c r="I55" s="32" t="s">
         <v>77</v>
       </c>
       <c r="J55" s="21"/>
@@ -2879,6 +3132,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="I28:I44"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="I11:I27"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="I45:I53"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="H2:H55"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="L9:L10"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="L16:L17"/>
     <mergeCell ref="M2:M27"/>
     <mergeCell ref="M28:M44"/>
     <mergeCell ref="M45:M53"/>
@@ -2895,45 +3187,6 @@
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="L18:L19"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="L9:L10"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="H2:H55"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="J43:J44"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="I45:I53"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="I28:I44"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="I11:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2944,7 +3197,7 @@
   <dimension ref="E1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G3"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2969,7 +3222,7 @@
       </c>
     </row>
     <row r="2" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="39" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2981,7 +3234,7 @@
       <c r="H2" s="15"/>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E3" s="36"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="2" t="s">
         <v>41</v>
       </c>
@@ -2995,7 +3248,7 @@
       <c r="G6" s="13"/>
     </row>
     <row r="7" spans="5:8" ht="19" x14ac:dyDescent="0.25">
-      <c r="E7" s="38"/>
+      <c r="E7" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3009,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713C6914-D67A-BA42-9F0F-DF7DE90A03D7}">
   <dimension ref="D1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="C1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3028,21 +3281,21 @@
       <c r="E1" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="74" t="s">
+      <c r="G1" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="36" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" spans="4:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="45" t="s">
         <v>118</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -3051,56 +3304,56 @@
       <c r="G2" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="77" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="3" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D3" s="71"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="76"/>
+      <c r="H3" s="78"/>
     </row>
     <row r="4" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D4" s="71"/>
-      <c r="E4" s="29"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="44"/>
       <c r="F4" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="H4" s="76"/>
+      <c r="H4" s="78"/>
     </row>
     <row r="5" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="71"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="8" t="s">
         <v>116</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="76"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="4:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="71"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="72" t="s">
+      <c r="D6" s="76"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G6" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="H6" s="77"/>
+      <c r="H6" s="79"/>
     </row>
     <row r="7" spans="4:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="D7" s="71"/>
+      <c r="D7" s="76"/>
       <c r="E7" s="14" t="s">
         <v>119</v>
       </c>
@@ -3110,7 +3363,7 @@
       <c r="G7" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="73" t="s">
+      <c r="H7" s="35" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3122,4 +3375,363 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1029B97-17E3-2F41-B35C-D61B3EBA7720}">
+  <dimension ref="E1:K30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E11" zoomScale="166" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="24.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="53.83203125" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:11" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="5:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="47"/>
+      <c r="F2" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G2" s="81" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E3" s="47"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="47"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="47"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="47"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="47"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E8" s="47"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E9" s="47"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="47"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="80" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="47"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="80"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E12" s="47"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="E13" s="47"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="5:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="47"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="5:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="47"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" s="83" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="5:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="47"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="91"/>
+    </row>
+    <row r="17" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E17" s="47"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="86" t="s">
+        <v>129</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E18" s="47"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="47"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="5:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="47"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="85" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E21" s="47"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="88" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22" spans="5:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="47"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="I22" s="83" t="s">
+        <v>147</v>
+      </c>
+      <c r="J22" s="83" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="23" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E23" s="47"/>
+      <c r="F23" s="49" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>135</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="5:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="47"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="I24" s="83" t="s">
+        <v>148</v>
+      </c>
+      <c r="J24" s="83" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="47"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="5:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="47"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>149</v>
+      </c>
+      <c r="J26" s="83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E27" s="47"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="47"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="92" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" s="83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" x14ac:dyDescent="0.2">
+      <c r="E29" s="47"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="48"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="87"/>
+      <c r="H30" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="92" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="F2:F22"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="F23:F30"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="E2:E30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>